--- a/biology/Botanique/Aurosphaeraceae/Aurosphaeraceae.xlsx
+++ b/biology/Botanique/Aurosphaeraceae/Aurosphaeraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aurosphaeraceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae mais dont le rattachement à un ordre est selon AlgaeBase                                           (4 février 2022)[1] encore incertain Incertae sedis.
-Les Aurosphaera ont été découverts dans le phytoplancton marin en mer Adriatique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aurosphaeraceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae mais dont le rattachement à un ordre est selon AlgaeBase                                           (4 février 2022) encore incertain Incertae sedis.
+Les Aurosphaera ont été découverts dans le phytoplancton marin en mer Adriatique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Aurosphaeraceae est attribuée, en 1925, au botaniste et biologiste autrichien Josef Schiller (d) (1877-1960)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Aurosphaeraceae est attribuée, en 1925, au botaniste et biologiste autrichien Josef Schiller (d) (1877-1960).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Aurosphaera, dérivé du grec αὖρον  / auron ou du latin  aurum, « couleur or », et σφαίρα / sphaira, « globe, sphère », littéralement « sphère d’or »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Aurosphaera, dérivé du grec αὖρον  / auron ou du latin  aurum, « couleur or », et σφαίρα / sphaira, « globe, sphère », littéralement « sphère d’or ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aurosphaera sont des cellules solitaires, globuleuses, ovoïdes-aplaties, portant en surface de nombreuses soies siliceuses effilées à bases élargies. Il renferment de deux à quatre chloroplastes jaune-brunâtre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aurosphaera sont des cellules solitaires, globuleuses, ovoïdes-aplaties, portant en surface de nombreuses soies siliceuses effilées à bases élargies. Il renferment de deux à quatre chloroplastes jaune-brunâtre.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (4 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (4 février 2022) :
 Aurosphaera  J.Schiller, 1916</t>
         </is>
       </c>
